--- a/artfynd/A 28765-2019.xlsx
+++ b/artfynd/A 28765-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY29"/>
+  <dimension ref="A1:AY31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4094,6 +4094,232 @@
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112414988</v>
+      </c>
+      <c r="B30" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Spångmyran, Dlr</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>381294</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6862860</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Idre</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>11:11</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>11:11</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Ingunn Woldmo</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Ingunn Woldmo</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112415012</v>
+      </c>
+      <c r="B31" t="n">
+        <v>90812</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Spångmyran, Dlr</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>381335</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6862894</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Idre</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Ingunn Woldmo</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Ingunn Woldmo</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 28765-2019.xlsx
+++ b/artfynd/A 28765-2019.xlsx
@@ -4096,10 +4096,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112414988</v>
+        <v>112415012</v>
       </c>
       <c r="B30" t="n">
-        <v>90823</v>
+        <v>90826</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4108,25 +4108,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5966</v>
+        <v>4366</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4137,10 +4137,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>381294</v>
+        <v>381335</v>
       </c>
       <c r="R30" t="n">
-        <v>6862860</v>
+        <v>6862894</v>
       </c>
       <c r="S30" t="n">
         <v>2</v>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4209,10 +4209,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112415012</v>
+        <v>112414988</v>
       </c>
       <c r="B31" t="n">
-        <v>90812</v>
+        <v>90837</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4221,25 +4221,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4366</v>
+        <v>5966</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4250,10 +4250,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>381335</v>
+        <v>381294</v>
       </c>
       <c r="R31" t="n">
-        <v>6862894</v>
+        <v>6862860</v>
       </c>
       <c r="S31" t="n">
         <v>2</v>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD31" t="b">

--- a/artfynd/A 28765-2019.xlsx
+++ b/artfynd/A 28765-2019.xlsx
@@ -4096,10 +4096,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112415012</v>
+        <v>112414988</v>
       </c>
       <c r="B30" t="n">
-        <v>90826</v>
+        <v>90837</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4108,25 +4108,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4366</v>
+        <v>5966</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4137,10 +4137,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>381335</v>
+        <v>381294</v>
       </c>
       <c r="R30" t="n">
-        <v>6862894</v>
+        <v>6862860</v>
       </c>
       <c r="S30" t="n">
         <v>2</v>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4209,10 +4209,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112414988</v>
+        <v>112415012</v>
       </c>
       <c r="B31" t="n">
-        <v>90837</v>
+        <v>90826</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4221,25 +4221,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5966</v>
+        <v>4366</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4250,10 +4250,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>381294</v>
+        <v>381335</v>
       </c>
       <c r="R31" t="n">
-        <v>6862860</v>
+        <v>6862894</v>
       </c>
       <c r="S31" t="n">
         <v>2</v>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AD31" t="b">
